--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3488.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3488.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9347510222496974</v>
+        <v>0.7851601243019104</v>
       </c>
       <c r="B1">
-        <v>1.459286747241044</v>
+        <v>3.580848217010498</v>
       </c>
       <c r="C1">
-        <v>3.637621161671062</v>
+        <v>3.487923622131348</v>
       </c>
       <c r="D1">
-        <v>6.15787487395888</v>
+        <v>2.908017873764038</v>
       </c>
       <c r="E1">
-        <v>1.999590007312626</v>
+        <v>1.78067684173584</v>
       </c>
     </row>
   </sheetData>
